--- a/test/SQ.xlsx
+++ b/test/SQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="41640" windowHeight="26320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26520"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4484" uniqueCount="2116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4495" uniqueCount="2127">
   <si>
     <t>type</t>
   </si>
@@ -6739,6 +6739,39 @@
   </si>
   <si>
     <t>sect_fp_service_integration_note</t>
+  </si>
+  <si>
+    <t>ppp_inclusion_level</t>
+  </si>
+  <si>
+    <t>ppp_input::English</t>
+  </si>
+  <si>
+    <t>A list of regions.</t>
+  </si>
+  <si>
+    <t>ppp_input::Français</t>
+  </si>
+  <si>
+    <t>Une liste de régions.</t>
+  </si>
+  <si>
+    <t>Une liste de communes / departments..</t>
+  </si>
+  <si>
+    <t>Une liste de localités / communes..</t>
+  </si>
+  <si>
+    <t>A list of communes / departments.</t>
+  </si>
+  <si>
+    <t>A list of localities / communes.</t>
+  </si>
+  <si>
+    <t>A list of EAs.</t>
+  </si>
+  <si>
+    <t>Une liste de zone de ZDs.</t>
   </si>
 </sst>
 </file>
@@ -7074,7 +7107,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="544">
+  <cellStyleXfs count="556">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7619,8 +7652,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7822,8 +7867,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="544">
+  <cellStyles count="556">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -8094,6 +8151,12 @@
     <cellStyle name="Followed Hyperlink" xfId="539" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="541" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="543" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="545" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="547" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="549" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="551" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="553" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="555" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -8364,6 +8427,12 @@
     <cellStyle name="Hyperlink" xfId="538" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="540" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="542" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="544" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="546" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="548" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="550" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="552" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="554" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="167"/>
     <cellStyle name="Normal 2 2" xfId="168"/>
@@ -8664,13 +8733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IS334"/>
+  <dimension ref="A1:IT334"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -8694,11 +8763,13 @@
     <col min="17" max="17" width="34.1640625" style="47" customWidth="1"/>
     <col min="18" max="18" width="39.5" style="47" customWidth="1"/>
     <col min="19" max="19" width="26.1640625" style="47" customWidth="1"/>
-    <col min="20" max="20" width="12.5" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="1"/>
+    <col min="20" max="20" width="2.5" style="36" customWidth="1"/>
+    <col min="21" max="22" width="15.6640625" style="36" customWidth="1"/>
+    <col min="23" max="23" width="16" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253" ht="13" customHeight="1">
+    <row r="1" spans="1:254" ht="13" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8747,8 +8818,17 @@
       <c r="S1" s="47" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="2" spans="1:253" ht="13" customHeight="1">
+      <c r="U1" s="36" t="s">
+        <v>2116</v>
+      </c>
+      <c r="V1" s="39" t="s">
+        <v>2117</v>
+      </c>
+      <c r="W1" s="39" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:254" ht="13" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
@@ -8761,8 +8841,10 @@
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
-    </row>
-    <row r="3" spans="1:253" ht="13" customHeight="1">
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+    </row>
+    <row r="3" spans="1:254" ht="13" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -8783,8 +8865,10 @@
       </c>
       <c r="R3"/>
       <c r="S3"/>
-    </row>
-    <row r="4" spans="1:253" ht="13" customHeight="1">
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+    </row>
+    <row r="4" spans="1:254" ht="13" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -8810,8 +8894,10 @@
         <v>24</v>
       </c>
       <c r="S4"/>
-    </row>
-    <row r="5" spans="1:253" ht="13" customHeight="1">
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+    </row>
+    <row r="5" spans="1:254" ht="13" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -8831,8 +8917,10 @@
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-    </row>
-    <row r="6" spans="1:253" ht="13" customHeight="1">
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+    </row>
+    <row r="6" spans="1:254" ht="13" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -8858,8 +8946,10 @@
       </c>
       <c r="R6"/>
       <c r="S6"/>
-    </row>
-    <row r="7" spans="1:253" ht="13" customHeight="1">
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+    </row>
+    <row r="7" spans="1:254" ht="13" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -8882,8 +8972,10 @@
       </c>
       <c r="R7"/>
       <c r="S7"/>
-    </row>
-    <row r="8" spans="1:253" ht="13" customHeight="1">
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+    </row>
+    <row r="8" spans="1:254" ht="13" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -8899,8 +8991,10 @@
       <c r="Q8"/>
       <c r="R8"/>
       <c r="S8"/>
-    </row>
-    <row r="9" spans="1:253" ht="13" customHeight="1">
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+    </row>
+    <row r="9" spans="1:254" ht="13" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -8933,8 +9027,10 @@
       <c r="S9" s="82" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="10" spans="1:253" ht="13" customHeight="1">
+      <c r="V9" s="39"/>
+      <c r="W9" s="39"/>
+    </row>
+    <row r="10" spans="1:254" ht="13" customHeight="1">
       <c r="A10" s="55" t="s">
         <v>31</v>
       </c>
@@ -8960,8 +9056,8 @@
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
       <c r="V10" s="55"/>
       <c r="W10" s="55"/>
       <c r="X10" s="55"/>
@@ -9194,8 +9290,9 @@
       <c r="IQ10" s="55"/>
       <c r="IR10" s="55"/>
       <c r="IS10" s="55"/>
-    </row>
-    <row r="11" spans="1:253" ht="13" customHeight="1">
+      <c r="IT10" s="55"/>
+    </row>
+    <row r="11" spans="1:254" ht="13" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>607</v>
       </c>
@@ -9211,8 +9308,10 @@
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
-    </row>
-    <row r="12" spans="1:253" ht="13" customHeight="1">
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+    </row>
+    <row r="12" spans="1:254" ht="13" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>611</v>
       </c>
@@ -9233,8 +9332,14 @@
       </c>
       <c r="R12"/>
       <c r="S12"/>
-    </row>
-    <row r="13" spans="1:253" ht="13" customHeight="1">
+      <c r="V12" s="55" t="s">
+        <v>2118</v>
+      </c>
+      <c r="W12" s="55" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:254" ht="13" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>614</v>
       </c>
@@ -9255,8 +9360,14 @@
       </c>
       <c r="R13"/>
       <c r="S13"/>
-    </row>
-    <row r="14" spans="1:253" ht="13" customHeight="1">
+      <c r="V13" s="55" t="s">
+        <v>2123</v>
+      </c>
+      <c r="W13" s="55" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:254" ht="13" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>615</v>
       </c>
@@ -9277,8 +9388,14 @@
       </c>
       <c r="R14"/>
       <c r="S14"/>
-    </row>
-    <row r="15" spans="1:253" ht="13" customHeight="1">
+      <c r="V14" s="55" t="s">
+        <v>2124</v>
+      </c>
+      <c r="W14" s="55" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:254" ht="13" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>616</v>
       </c>
@@ -9299,8 +9416,14 @@
       </c>
       <c r="R15"/>
       <c r="S15"/>
-    </row>
-    <row r="16" spans="1:253" ht="13" customHeight="1">
+      <c r="V15" s="39" t="s">
+        <v>2125</v>
+      </c>
+      <c r="W15" s="55" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:254" ht="13" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -9331,8 +9454,10 @@
       <c r="S16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+    </row>
+    <row r="17" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>42</v>
       </c>
@@ -9355,8 +9480,10 @@
         <v>45</v>
       </c>
       <c r="S17"/>
-    </row>
-    <row r="18" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V17" s="39"/>
+      <c r="W17" s="39"/>
+    </row>
+    <row r="18" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>31</v>
       </c>
@@ -9369,8 +9496,10 @@
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
-    </row>
-    <row r="19" spans="1:19" ht="13" customHeight="1">
+      <c r="V18" s="39"/>
+      <c r="W18" s="39"/>
+    </row>
+    <row r="19" spans="1:23" ht="13" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
@@ -9393,8 +9522,10 @@
         <v>50</v>
       </c>
       <c r="S19"/>
-    </row>
-    <row r="20" spans="1:19" ht="13" customHeight="1">
+      <c r="V19" s="39"/>
+      <c r="W19" s="39"/>
+    </row>
+    <row r="20" spans="1:23" ht="13" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -9412,8 +9543,10 @@
       </c>
       <c r="R20"/>
       <c r="S20"/>
-    </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+    </row>
+    <row r="21" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>52</v>
       </c>
@@ -9439,8 +9572,10 @@
         <v>57</v>
       </c>
       <c r="S21"/>
-    </row>
-    <row r="22" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V21" s="39"/>
+      <c r="W21" s="39"/>
+    </row>
+    <row r="22" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>52</v>
       </c>
@@ -9461,8 +9596,10 @@
       </c>
       <c r="R22"/>
       <c r="S22"/>
-    </row>
-    <row r="23" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V22" s="39"/>
+      <c r="W22" s="39"/>
+    </row>
+    <row r="23" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>16</v>
       </c>
@@ -9483,8 +9620,10 @@
       </c>
       <c r="R23"/>
       <c r="S23"/>
-    </row>
-    <row r="24" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V23" s="39"/>
+      <c r="W23" s="39"/>
+    </row>
+    <row r="24" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>13</v>
       </c>
@@ -9500,8 +9639,10 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
-    </row>
-    <row r="25" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+    </row>
+    <row r="25" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>62</v>
       </c>
@@ -9519,8 +9660,10 @@
       </c>
       <c r="R25"/>
       <c r="S25"/>
-    </row>
-    <row r="26" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V25" s="39"/>
+      <c r="W25" s="39"/>
+    </row>
+    <row r="26" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>65</v>
       </c>
@@ -9535,8 +9678,10 @@
       </c>
       <c r="R26"/>
       <c r="S26"/>
-    </row>
-    <row r="27" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V26" s="39"/>
+      <c r="W26" s="39"/>
+    </row>
+    <row r="27" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>20</v>
       </c>
@@ -9546,8 +9691,10 @@
       <c r="Q27"/>
       <c r="R27"/>
       <c r="S27"/>
-    </row>
-    <row r="28" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V27" s="39"/>
+      <c r="W27" s="39"/>
+    </row>
+    <row r="28" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>31</v>
       </c>
@@ -9560,8 +9707,10 @@
       <c r="Q28"/>
       <c r="R28"/>
       <c r="S28"/>
-    </row>
-    <row r="29" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+    </row>
+    <row r="29" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>52</v>
       </c>
@@ -9587,8 +9736,10 @@
         <v>75</v>
       </c>
       <c r="S29"/>
-    </row>
-    <row r="30" spans="1:19" ht="13" customHeight="1">
+      <c r="V29" s="39"/>
+      <c r="W29" s="39"/>
+    </row>
+    <row r="30" spans="1:23" ht="13" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -9614,8 +9765,10 @@
         <v>79</v>
       </c>
       <c r="S30"/>
-    </row>
-    <row r="31" spans="1:19" ht="13" customHeight="1">
+      <c r="V30" s="39"/>
+      <c r="W30" s="39"/>
+    </row>
+    <row r="31" spans="1:23" ht="13" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -9644,8 +9797,10 @@
       <c r="S31" s="82" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+    </row>
+    <row r="32" spans="1:23" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>633</v>
       </c>
@@ -9671,8 +9826,10 @@
         <v>88</v>
       </c>
       <c r="S32"/>
-    </row>
-    <row r="33" spans="1:45" ht="13" customHeight="1">
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+    </row>
+    <row r="33" spans="1:46" ht="13" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -9706,8 +9863,10 @@
       <c r="S33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:45" ht="13" customHeight="1">
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+    </row>
+    <row r="34" spans="1:46" ht="13" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>94</v>
       </c>
@@ -9733,8 +9892,10 @@
         <v>98</v>
       </c>
       <c r="S34"/>
-    </row>
-    <row r="35" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+    </row>
+    <row r="35" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A35" s="77" t="s">
         <v>13</v>
       </c>
@@ -9760,13 +9921,17 @@
       <c r="Q35"/>
       <c r="R35"/>
       <c r="S35"/>
-      <c r="AO35" s="77"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
       <c r="AP35" s="77"/>
       <c r="AQ35" s="77"/>
       <c r="AR35" s="77"/>
       <c r="AS35" s="77"/>
-    </row>
-    <row r="36" spans="1:45" ht="13" customHeight="1">
+      <c r="AT35" s="77"/>
+    </row>
+    <row r="36" spans="1:46" ht="13" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -9786,8 +9951,10 @@
         <v>1986</v>
       </c>
       <c r="S36"/>
-    </row>
-    <row r="37" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+    </row>
+    <row r="37" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A37" s="79" t="s">
         <v>1781</v>
       </c>
@@ -9817,13 +9984,17 @@
       </c>
       <c r="R37"/>
       <c r="S37"/>
-      <c r="AO37" s="77"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
       <c r="AP37" s="77"/>
       <c r="AQ37" s="77"/>
       <c r="AR37" s="77"/>
       <c r="AS37" s="77"/>
-    </row>
-    <row r="38" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT37" s="77"/>
+    </row>
+    <row r="38" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A38" s="77" t="s">
         <v>103</v>
       </c>
@@ -9861,13 +10032,17 @@
       <c r="S38" s="1" t="s">
         <v>1987</v>
       </c>
-      <c r="AO38" s="77"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
       <c r="AP38" s="77"/>
       <c r="AQ38" s="77"/>
       <c r="AR38" s="77"/>
       <c r="AS38" s="77"/>
-    </row>
-    <row r="39" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT38" s="77"/>
+    </row>
+    <row r="39" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A39" s="77" t="s">
         <v>31</v>
       </c>
@@ -9890,13 +10065,17 @@
       <c r="Q39"/>
       <c r="R39"/>
       <c r="S39"/>
-      <c r="AO39" s="77"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
       <c r="AP39" s="77"/>
       <c r="AQ39" s="77"/>
       <c r="AR39" s="77"/>
       <c r="AS39" s="77"/>
-    </row>
-    <row r="40" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT39" s="77"/>
+    </row>
+    <row r="40" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A40" s="77" t="s">
         <v>31</v>
       </c>
@@ -9919,13 +10098,15 @@
       <c r="Q40"/>
       <c r="R40"/>
       <c r="S40"/>
-      <c r="AO40" s="77"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
       <c r="AP40" s="77"/>
       <c r="AQ40" s="77"/>
       <c r="AR40" s="77"/>
       <c r="AS40" s="77"/>
-    </row>
-    <row r="41" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT40" s="77"/>
+    </row>
+    <row r="41" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A41" s="77" t="s">
         <v>20</v>
       </c>
@@ -9947,13 +10128,15 @@
       <c r="Q41"/>
       <c r="R41"/>
       <c r="S41"/>
-      <c r="AO41" s="77"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
       <c r="AP41" s="77"/>
       <c r="AQ41" s="77"/>
       <c r="AR41" s="77"/>
       <c r="AS41" s="77"/>
-    </row>
-    <row r="42" spans="1:45" s="81" customFormat="1" ht="13" customHeight="1">
+      <c r="AT41" s="77"/>
+    </row>
+    <row r="42" spans="1:46" s="81" customFormat="1" ht="13" customHeight="1">
       <c r="A42" s="77" t="s">
         <v>52</v>
       </c>
@@ -9984,9 +10167,10 @@
       </c>
       <c r="R42"/>
       <c r="S42"/>
-      <c r="T42"/>
-    </row>
-    <row r="43" spans="1:45" ht="13" customHeight="1">
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+    </row>
+    <row r="43" spans="1:46" ht="13" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>289</v>
       </c>
@@ -10008,7 +10192,7 @@
       <c r="R43"/>
       <c r="S43"/>
     </row>
-    <row r="44" spans="1:45" s="28" customFormat="1" ht="13" customHeight="1">
+    <row r="44" spans="1:46" s="28" customFormat="1" ht="13" customHeight="1">
       <c r="A44" s="28" t="s">
         <v>52</v>
       </c>
@@ -10034,8 +10218,11 @@
         <v>102</v>
       </c>
       <c r="S44"/>
-    </row>
-    <row r="45" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="T44" s="36"/>
+      <c r="U44" s="36"/>
+      <c r="V44" s="36"/>
+    </row>
+    <row r="45" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A45" s="77" t="s">
         <v>13</v>
       </c>
@@ -10061,13 +10248,16 @@
       <c r="Q45"/>
       <c r="R45"/>
       <c r="S45"/>
-      <c r="AO45" s="77"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
       <c r="AP45" s="77"/>
       <c r="AQ45" s="77"/>
       <c r="AR45" s="77"/>
       <c r="AS45" s="77"/>
-    </row>
-    <row r="46" spans="1:45" ht="13" customHeight="1">
+      <c r="AT45" s="77"/>
+    </row>
+    <row r="46" spans="1:46" ht="13" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -10088,7 +10278,7 @@
       </c>
       <c r="S46"/>
     </row>
-    <row r="47" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+    <row r="47" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A47" s="79" t="s">
         <v>1781</v>
       </c>
@@ -10118,13 +10308,16 @@
       </c>
       <c r="R47"/>
       <c r="S47"/>
-      <c r="AO47" s="77"/>
+      <c r="T47" s="88"/>
+      <c r="U47" s="88"/>
+      <c r="V47" s="88"/>
       <c r="AP47" s="77"/>
       <c r="AQ47" s="77"/>
       <c r="AR47" s="77"/>
       <c r="AS47" s="77"/>
-    </row>
-    <row r="48" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT47" s="77"/>
+    </row>
+    <row r="48" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A48" s="77" t="s">
         <v>103</v>
       </c>
@@ -10162,13 +10355,16 @@
       <c r="S48" s="1" t="s">
         <v>1987</v>
       </c>
-      <c r="AO48" s="77"/>
+      <c r="T48" s="88"/>
+      <c r="U48" s="88"/>
+      <c r="V48" s="88"/>
       <c r="AP48" s="77"/>
       <c r="AQ48" s="77"/>
       <c r="AR48" s="77"/>
       <c r="AS48" s="77"/>
-    </row>
-    <row r="49" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT48" s="77"/>
+    </row>
+    <row r="49" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A49" s="77" t="s">
         <v>31</v>
       </c>
@@ -10191,13 +10387,16 @@
       <c r="Q49"/>
       <c r="R49"/>
       <c r="S49"/>
-      <c r="AO49" s="77"/>
+      <c r="T49" s="88"/>
+      <c r="U49" s="88"/>
+      <c r="V49" s="88"/>
       <c r="AP49" s="77"/>
       <c r="AQ49" s="77"/>
       <c r="AR49" s="77"/>
       <c r="AS49" s="77"/>
-    </row>
-    <row r="50" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT49" s="77"/>
+    </row>
+    <row r="50" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A50" s="77" t="s">
         <v>31</v>
       </c>
@@ -10220,13 +10419,16 @@
       <c r="Q50"/>
       <c r="R50"/>
       <c r="S50"/>
-      <c r="AO50" s="77"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
       <c r="AP50" s="77"/>
       <c r="AQ50" s="77"/>
       <c r="AR50" s="77"/>
       <c r="AS50" s="77"/>
-    </row>
-    <row r="51" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT50" s="77"/>
+    </row>
+    <row r="51" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A51" s="77" t="s">
         <v>20</v>
       </c>
@@ -10248,13 +10450,16 @@
       <c r="Q51"/>
       <c r="R51"/>
       <c r="S51"/>
-      <c r="AO51" s="77"/>
+      <c r="T51" s="88"/>
+      <c r="U51" s="88"/>
+      <c r="V51" s="88"/>
       <c r="AP51" s="77"/>
       <c r="AQ51" s="77"/>
       <c r="AR51" s="77"/>
       <c r="AS51" s="77"/>
-    </row>
-    <row r="52" spans="1:45" s="81" customFormat="1" ht="13" customHeight="1">
+      <c r="AT51" s="77"/>
+    </row>
+    <row r="52" spans="1:46" s="81" customFormat="1" ht="13" customHeight="1">
       <c r="A52" s="77" t="s">
         <v>52</v>
       </c>
@@ -10285,9 +10490,11 @@
       </c>
       <c r="R52"/>
       <c r="S52"/>
-      <c r="T52"/>
-    </row>
-    <row r="53" spans="1:45" ht="13" customHeight="1">
+      <c r="T52" s="31"/>
+      <c r="U52" s="31"/>
+      <c r="V52" s="89"/>
+    </row>
+    <row r="53" spans="1:46" ht="13" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>35</v>
       </c>
@@ -10322,7 +10529,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:45" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="54" spans="1:46" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A54" s="32" t="s">
         <v>141</v>
       </c>
@@ -10343,8 +10550,11 @@
       </c>
       <c r="R54"/>
       <c r="S54"/>
-    </row>
-    <row r="55" spans="1:45" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+    </row>
+    <row r="55" spans="1:46" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A55" s="36" t="s">
         <v>52</v>
       </c>
@@ -10363,7 +10573,7 @@
       <c r="R55"/>
       <c r="S55"/>
     </row>
-    <row r="56" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+    <row r="56" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A56" s="60" t="s">
         <v>13</v>
       </c>
@@ -10384,8 +10594,11 @@
       </c>
       <c r="R56"/>
       <c r="S56"/>
-    </row>
-    <row r="57" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T56" s="90"/>
+      <c r="U56" s="90"/>
+      <c r="V56" s="90"/>
+    </row>
+    <row r="57" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A57" s="60" t="s">
         <v>35</v>
       </c>
@@ -10411,8 +10624,11 @@
       <c r="S57" s="82" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T57" s="90"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="90"/>
+    </row>
+    <row r="58" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A58" s="60" t="s">
         <v>35</v>
       </c>
@@ -10438,8 +10654,11 @@
       <c r="S58" s="82" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T58" s="90"/>
+      <c r="U58" s="90"/>
+      <c r="V58" s="90"/>
+    </row>
+    <row r="59" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A59" s="60" t="s">
         <v>20</v>
       </c>
@@ -10449,8 +10668,11 @@
       <c r="Q59"/>
       <c r="R59"/>
       <c r="S59"/>
-    </row>
-    <row r="60" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T59" s="90"/>
+      <c r="U59" s="90"/>
+      <c r="V59" s="90"/>
+    </row>
+    <row r="60" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A60" s="60" t="s">
         <v>13</v>
       </c>
@@ -10471,8 +10693,11 @@
       </c>
       <c r="R60"/>
       <c r="S60"/>
-    </row>
-    <row r="61" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T60" s="90"/>
+      <c r="U60" s="90"/>
+      <c r="V60" s="90"/>
+    </row>
+    <row r="61" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A61" s="60" t="s">
         <v>35</v>
       </c>
@@ -10498,8 +10723,11 @@
       <c r="S61" s="82" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="62" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T61" s="90"/>
+      <c r="U61" s="90"/>
+      <c r="V61" s="90"/>
+    </row>
+    <row r="62" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A62" s="60" t="s">
         <v>35</v>
       </c>
@@ -10525,8 +10753,11 @@
       <c r="S62" s="82" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="63" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T62" s="90"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="90"/>
+    </row>
+    <row r="63" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A63" s="60" t="s">
         <v>20</v>
       </c>
@@ -10536,8 +10767,11 @@
       <c r="Q63"/>
       <c r="R63"/>
       <c r="S63"/>
-    </row>
-    <row r="64" spans="1:45" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T63" s="90"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="90"/>
+    </row>
+    <row r="64" spans="1:46" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A64" s="60" t="s">
         <v>13</v>
       </c>
@@ -10558,8 +10792,11 @@
       </c>
       <c r="R64"/>
       <c r="S64"/>
-    </row>
-    <row r="65" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T64" s="90"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="90"/>
+    </row>
+    <row r="65" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A65" s="60" t="s">
         <v>35</v>
       </c>
@@ -10585,8 +10822,11 @@
       <c r="S65" s="82" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="66" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T65" s="90"/>
+      <c r="U65" s="90"/>
+      <c r="V65" s="90"/>
+    </row>
+    <row r="66" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A66" s="60" t="s">
         <v>35</v>
       </c>
@@ -10612,8 +10852,11 @@
       <c r="S66" s="82" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T66" s="90"/>
+      <c r="U66" s="90"/>
+      <c r="V66" s="90"/>
+    </row>
+    <row r="67" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A67" s="60" t="s">
         <v>20</v>
       </c>
@@ -10623,8 +10866,11 @@
       <c r="Q67"/>
       <c r="R67"/>
       <c r="S67"/>
-    </row>
-    <row r="68" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T67" s="90"/>
+      <c r="U67" s="90"/>
+      <c r="V67" s="90"/>
+    </row>
+    <row r="68" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A68" s="60" t="s">
         <v>13</v>
       </c>
@@ -10645,8 +10891,11 @@
       </c>
       <c r="R68"/>
       <c r="S68"/>
-    </row>
-    <row r="69" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T68" s="90"/>
+      <c r="U68" s="90"/>
+      <c r="V68" s="90"/>
+    </row>
+    <row r="69" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A69" s="60" t="s">
         <v>35</v>
       </c>
@@ -10672,8 +10921,11 @@
       <c r="S69" s="82" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="70" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T69" s="90"/>
+      <c r="U69" s="90"/>
+      <c r="V69" s="90"/>
+    </row>
+    <row r="70" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A70" s="60" t="s">
         <v>35</v>
       </c>
@@ -10699,8 +10951,11 @@
       <c r="S70" s="82" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="71" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T70" s="90"/>
+      <c r="U70" s="90"/>
+      <c r="V70" s="90"/>
+    </row>
+    <row r="71" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A71" s="60" t="s">
         <v>20</v>
       </c>
@@ -10710,8 +10965,11 @@
       <c r="Q71"/>
       <c r="R71"/>
       <c r="S71"/>
-    </row>
-    <row r="72" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T71" s="90"/>
+      <c r="U71" s="90"/>
+      <c r="V71" s="90"/>
+    </row>
+    <row r="72" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A72" s="60" t="s">
         <v>13</v>
       </c>
@@ -10732,8 +10990,11 @@
       </c>
       <c r="R72"/>
       <c r="S72"/>
-    </row>
-    <row r="73" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T72" s="90"/>
+      <c r="U72" s="90"/>
+      <c r="V72" s="90"/>
+    </row>
+    <row r="73" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A73" s="60" t="s">
         <v>35</v>
       </c>
@@ -10759,8 +11020,11 @@
       <c r="S73" s="82" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T73" s="90"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="90"/>
+    </row>
+    <row r="74" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A74" s="60" t="s">
         <v>35</v>
       </c>
@@ -10786,8 +11050,11 @@
       <c r="S74" s="82" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="75" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T74" s="90"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="90"/>
+    </row>
+    <row r="75" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A75" s="60" t="s">
         <v>20</v>
       </c>
@@ -10797,8 +11064,11 @@
       <c r="Q75"/>
       <c r="R75"/>
       <c r="S75"/>
-    </row>
-    <row r="76" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T75" s="90"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="90"/>
+    </row>
+    <row r="76" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A76" s="60" t="s">
         <v>13</v>
       </c>
@@ -10819,8 +11089,11 @@
       </c>
       <c r="R76"/>
       <c r="S76"/>
-    </row>
-    <row r="77" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T76" s="90"/>
+      <c r="U76" s="90"/>
+      <c r="V76" s="90"/>
+    </row>
+    <row r="77" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A77" s="60" t="s">
         <v>35</v>
       </c>
@@ -10846,8 +11119,11 @@
       <c r="S77" s="82" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T77" s="90"/>
+      <c r="U77" s="90"/>
+      <c r="V77" s="90"/>
+    </row>
+    <row r="78" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A78" s="60" t="s">
         <v>35</v>
       </c>
@@ -10873,8 +11149,11 @@
       <c r="S78" s="82" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="79" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T78" s="90"/>
+      <c r="U78" s="90"/>
+      <c r="V78" s="90"/>
+    </row>
+    <row r="79" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A79" s="60" t="s">
         <v>20</v>
       </c>
@@ -10884,8 +11163,11 @@
       <c r="Q79"/>
       <c r="R79"/>
       <c r="S79"/>
-    </row>
-    <row r="80" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T79" s="90"/>
+      <c r="U79" s="90"/>
+      <c r="V79" s="90"/>
+    </row>
+    <row r="80" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A80" s="60" t="s">
         <v>13</v>
       </c>
@@ -10906,8 +11188,11 @@
       </c>
       <c r="R80"/>
       <c r="S80"/>
-    </row>
-    <row r="81" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T80" s="90"/>
+      <c r="U80" s="90"/>
+      <c r="V80" s="90"/>
+    </row>
+    <row r="81" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A81" s="60" t="s">
         <v>35</v>
       </c>
@@ -10933,8 +11218,11 @@
       <c r="S81" s="82" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T81" s="90"/>
+      <c r="U81" s="90"/>
+      <c r="V81" s="90"/>
+    </row>
+    <row r="82" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A82" s="60" t="s">
         <v>35</v>
       </c>
@@ -10960,8 +11248,11 @@
       <c r="S82" s="82" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T82" s="90"/>
+      <c r="U82" s="90"/>
+      <c r="V82" s="90"/>
+    </row>
+    <row r="83" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A83" s="60" t="s">
         <v>20</v>
       </c>
@@ -10971,8 +11262,11 @@
       <c r="Q83"/>
       <c r="R83"/>
       <c r="S83"/>
-    </row>
-    <row r="84" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T83" s="90"/>
+      <c r="U83" s="90"/>
+      <c r="V83" s="90"/>
+    </row>
+    <row r="84" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A84" s="60" t="s">
         <v>13</v>
       </c>
@@ -10993,8 +11287,11 @@
       </c>
       <c r="R84"/>
       <c r="S84"/>
-    </row>
-    <row r="85" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T84" s="90"/>
+      <c r="U84" s="90"/>
+      <c r="V84" s="90"/>
+    </row>
+    <row r="85" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A85" s="60" t="s">
         <v>35</v>
       </c>
@@ -11020,8 +11317,11 @@
       <c r="S85" s="82" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="86" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T85" s="90"/>
+      <c r="U85" s="90"/>
+      <c r="V85" s="90"/>
+    </row>
+    <row r="86" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A86" s="60" t="s">
         <v>35</v>
       </c>
@@ -11047,8 +11347,11 @@
       <c r="S86" s="82" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="87" spans="1:19" s="60" customFormat="1" ht="13" customHeight="1">
+      <c r="T86" s="90"/>
+      <c r="U86" s="90"/>
+      <c r="V86" s="90"/>
+    </row>
+    <row r="87" spans="1:22" s="60" customFormat="1" ht="13" customHeight="1">
       <c r="A87" s="60" t="s">
         <v>20</v>
       </c>
@@ -11058,8 +11361,11 @@
       <c r="Q87"/>
       <c r="R87"/>
       <c r="S87"/>
-    </row>
-    <row r="88" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T87" s="90"/>
+      <c r="U87" s="90"/>
+      <c r="V87" s="90"/>
+    </row>
+    <row r="88" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A88" s="32" t="s">
         <v>144</v>
       </c>
@@ -11080,8 +11386,11 @@
       </c>
       <c r="R88"/>
       <c r="S88"/>
-    </row>
-    <row r="89" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T88" s="36"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="36"/>
+    </row>
+    <row r="89" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A89" s="32" t="s">
         <v>35</v>
       </c>
@@ -11115,8 +11424,11 @@
       <c r="S89" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T89" s="36"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="36"/>
+    </row>
+    <row r="90" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A90" s="32" t="s">
         <v>35</v>
       </c>
@@ -11145,8 +11457,11 @@
         <v>155</v>
       </c>
       <c r="S90"/>
-    </row>
-    <row r="91" spans="1:19" ht="13" customHeight="1">
+      <c r="T90" s="36"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="36"/>
+    </row>
+    <row r="91" spans="1:22" ht="13" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>156</v>
       </c>
@@ -11168,7 +11483,7 @@
       <c r="R91"/>
       <c r="S91"/>
     </row>
-    <row r="92" spans="1:19" ht="13" customHeight="1">
+    <row r="92" spans="1:22" ht="13" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>158</v>
       </c>
@@ -11195,7 +11510,7 @@
       </c>
       <c r="S92"/>
     </row>
-    <row r="93" spans="1:19" ht="13" customHeight="1">
+    <row r="93" spans="1:22" ht="13" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>289</v>
       </c>
@@ -11217,7 +11532,7 @@
       <c r="R93"/>
       <c r="S93"/>
     </row>
-    <row r="94" spans="1:19" ht="13" customHeight="1">
+    <row r="94" spans="1:22" ht="13" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>158</v>
       </c>
@@ -11244,7 +11559,7 @@
       </c>
       <c r="S94"/>
     </row>
-    <row r="95" spans="1:19" ht="13" customHeight="1">
+    <row r="95" spans="1:22" ht="13" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>289</v>
       </c>
@@ -11266,7 +11581,7 @@
       <c r="R95"/>
       <c r="S95"/>
     </row>
-    <row r="96" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="96" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A96" s="32" t="s">
         <v>35</v>
       </c>
@@ -11295,8 +11610,11 @@
         <v>1819</v>
       </c>
       <c r="S96"/>
-    </row>
-    <row r="97" spans="1:45" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T96" s="36"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="36"/>
+    </row>
+    <row r="97" spans="1:46" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A97" s="32" t="s">
         <v>161</v>
       </c>
@@ -11330,8 +11648,11 @@
       <c r="S97" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="98" spans="1:45" s="28" customFormat="1" ht="13" customHeight="1">
+      <c r="T97" s="36"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="36"/>
+    </row>
+    <row r="98" spans="1:46" s="28" customFormat="1" ht="13" customHeight="1">
       <c r="A98" s="28" t="s">
         <v>52</v>
       </c>
@@ -11357,8 +11678,11 @@
         <v>1822</v>
       </c>
       <c r="S98"/>
-    </row>
-    <row r="99" spans="1:45" ht="13" customHeight="1">
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
+    </row>
+    <row r="99" spans="1:46" ht="13" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>158</v>
       </c>
@@ -11380,7 +11704,7 @@
       <c r="R99"/>
       <c r="S99"/>
     </row>
-    <row r="100" spans="1:45" ht="13" customHeight="1">
+    <row r="100" spans="1:46" ht="13" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
@@ -11394,7 +11718,7 @@
       <c r="R100"/>
       <c r="S100"/>
     </row>
-    <row r="101" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+    <row r="101" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A101" s="77" t="s">
         <v>13</v>
       </c>
@@ -11420,13 +11744,16 @@
       <c r="Q101"/>
       <c r="R101"/>
       <c r="S101"/>
-      <c r="AO101" s="77"/>
+      <c r="T101" s="88"/>
+      <c r="U101" s="88"/>
+      <c r="V101" s="88"/>
       <c r="AP101" s="77"/>
       <c r="AQ101" s="77"/>
       <c r="AR101" s="77"/>
       <c r="AS101" s="77"/>
-    </row>
-    <row r="102" spans="1:45" ht="13" customHeight="1">
+      <c r="AT101" s="77"/>
+    </row>
+    <row r="102" spans="1:46" ht="13" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>52</v>
       </c>
@@ -11447,7 +11774,7 @@
       </c>
       <c r="S102"/>
     </row>
-    <row r="103" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+    <row r="103" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A103" s="79" t="s">
         <v>1781</v>
       </c>
@@ -11477,13 +11804,16 @@
       </c>
       <c r="R103"/>
       <c r="S103"/>
-      <c r="AO103" s="77"/>
+      <c r="T103" s="88"/>
+      <c r="U103" s="88"/>
+      <c r="V103" s="88"/>
       <c r="AP103" s="77"/>
       <c r="AQ103" s="77"/>
       <c r="AR103" s="77"/>
       <c r="AS103" s="77"/>
-    </row>
-    <row r="104" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT103" s="77"/>
+    </row>
+    <row r="104" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A104" s="77" t="s">
         <v>103</v>
       </c>
@@ -11521,13 +11851,16 @@
       <c r="S104" s="1" t="s">
         <v>1987</v>
       </c>
-      <c r="AO104" s="77"/>
+      <c r="T104" s="88"/>
+      <c r="U104" s="88"/>
+      <c r="V104" s="88"/>
       <c r="AP104" s="77"/>
       <c r="AQ104" s="77"/>
       <c r="AR104" s="77"/>
       <c r="AS104" s="77"/>
-    </row>
-    <row r="105" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT104" s="77"/>
+    </row>
+    <row r="105" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A105" s="77" t="s">
         <v>31</v>
       </c>
@@ -11551,13 +11884,16 @@
       <c r="Q105" s="1"/>
       <c r="R105"/>
       <c r="S105" s="1"/>
-      <c r="AO105" s="77"/>
+      <c r="T105" s="88"/>
+      <c r="U105" s="88"/>
+      <c r="V105" s="88"/>
       <c r="AP105" s="77"/>
       <c r="AQ105" s="77"/>
       <c r="AR105" s="77"/>
       <c r="AS105" s="77"/>
-    </row>
-    <row r="106" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT105" s="77"/>
+    </row>
+    <row r="106" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A106" s="77" t="s">
         <v>31</v>
       </c>
@@ -11580,13 +11916,16 @@
       <c r="Q106"/>
       <c r="R106"/>
       <c r="S106"/>
-      <c r="AO106" s="77"/>
+      <c r="T106" s="88"/>
+      <c r="U106" s="88"/>
+      <c r="V106" s="88"/>
       <c r="AP106" s="77"/>
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
       <c r="AS106" s="77"/>
-    </row>
-    <row r="107" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT106" s="77"/>
+    </row>
+    <row r="107" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A107" s="77" t="s">
         <v>31</v>
       </c>
@@ -11609,13 +11948,16 @@
       <c r="Q107"/>
       <c r="R107"/>
       <c r="S107"/>
-      <c r="AO107" s="77"/>
+      <c r="T107" s="88"/>
+      <c r="U107" s="88"/>
+      <c r="V107" s="88"/>
       <c r="AP107" s="77"/>
       <c r="AQ107" s="77"/>
       <c r="AR107" s="77"/>
       <c r="AS107" s="77"/>
-    </row>
-    <row r="108" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT107" s="77"/>
+    </row>
+    <row r="108" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A108" s="77" t="s">
         <v>20</v>
       </c>
@@ -11637,13 +11979,16 @@
       <c r="Q108"/>
       <c r="R108"/>
       <c r="S108"/>
-      <c r="AO108" s="77"/>
+      <c r="T108" s="88"/>
+      <c r="U108" s="88"/>
+      <c r="V108" s="88"/>
       <c r="AP108" s="77"/>
       <c r="AQ108" s="77"/>
       <c r="AR108" s="77"/>
       <c r="AS108" s="77"/>
-    </row>
-    <row r="109" spans="1:45" s="81" customFormat="1" ht="13" customHeight="1">
+      <c r="AT108" s="77"/>
+    </row>
+    <row r="109" spans="1:46" s="81" customFormat="1" ht="13" customHeight="1">
       <c r="A109" s="77" t="s">
         <v>52</v>
       </c>
@@ -11674,9 +12019,11 @@
       </c>
       <c r="R109"/>
       <c r="S109"/>
-      <c r="T109"/>
-    </row>
-    <row r="110" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="T109" s="31"/>
+      <c r="U109" s="31"/>
+      <c r="V109" s="89"/>
+    </row>
+    <row r="110" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A110" s="77" t="s">
         <v>52</v>
       </c>
@@ -11706,13 +12053,16 @@
       </c>
       <c r="R110"/>
       <c r="S110"/>
-      <c r="AO110" s="77"/>
+      <c r="T110" s="88"/>
+      <c r="U110" s="88"/>
+      <c r="V110" s="88"/>
       <c r="AP110" s="77"/>
       <c r="AQ110" s="77"/>
       <c r="AR110" s="77"/>
       <c r="AS110" s="77"/>
-    </row>
-    <row r="111" spans="1:45" s="78" customFormat="1" ht="13" customHeight="1">
+      <c r="AT110" s="77"/>
+    </row>
+    <row r="111" spans="1:46" s="78" customFormat="1" ht="13" customHeight="1">
       <c r="A111" s="77" t="s">
         <v>52</v>
       </c>
@@ -11742,13 +12092,16 @@
       </c>
       <c r="R111"/>
       <c r="S111"/>
-      <c r="AO111" s="77"/>
+      <c r="T111" s="88"/>
+      <c r="U111" s="88"/>
+      <c r="V111" s="88"/>
       <c r="AP111" s="77"/>
       <c r="AQ111" s="77"/>
       <c r="AR111" s="77"/>
       <c r="AS111" s="77"/>
-    </row>
-    <row r="112" spans="1:45" ht="13" customHeight="1">
+      <c r="AT111" s="77"/>
+    </row>
+    <row r="112" spans="1:46" ht="13" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>35</v>
       </c>
@@ -11783,7 +12136,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="113" spans="1:19" ht="13" customHeight="1">
+    <row r="113" spans="1:22" ht="13" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>158</v>
       </c>
@@ -11805,7 +12158,7 @@
       <c r="R113"/>
       <c r="S113"/>
     </row>
-    <row r="114" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="114" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A114" s="32" t="s">
         <v>158</v>
       </c>
@@ -11826,8 +12179,11 @@
       </c>
       <c r="R114"/>
       <c r="S114"/>
-    </row>
-    <row r="115" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="T114" s="36"/>
+      <c r="U114" s="36"/>
+      <c r="V114" s="36"/>
+    </row>
+    <row r="115" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A115" s="36" t="s">
         <v>35</v>
       </c>
@@ -11857,7 +12213,7 @@
       </c>
       <c r="S115"/>
     </row>
-    <row r="116" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+    <row r="116" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A116" s="36" t="s">
         <v>179</v>
       </c>
@@ -11887,7 +12243,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="117" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A117" s="32" t="s">
         <v>35</v>
       </c>
@@ -11921,8 +12277,11 @@
       <c r="S117" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="118" spans="1:19" ht="13" customHeight="1">
+      <c r="T117" s="36"/>
+      <c r="U117" s="36"/>
+      <c r="V117" s="36"/>
+    </row>
+    <row r="118" spans="1:22" ht="13" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>251</v>
       </c>
@@ -11957,7 +12316,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="119" spans="1:19" s="28" customFormat="1" ht="13" customHeight="1">
+    <row r="119" spans="1:22" s="28" customFormat="1" ht="13" customHeight="1">
       <c r="A119" s="28" t="s">
         <v>52</v>
       </c>
@@ -11975,8 +12334,11 @@
       </c>
       <c r="R119"/>
       <c r="S119"/>
-    </row>
-    <row r="120" spans="1:19" ht="13" customHeight="1">
+      <c r="T119" s="36"/>
+      <c r="U119" s="36"/>
+      <c r="V119" s="36"/>
+    </row>
+    <row r="120" spans="1:22" ht="13" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>710</v>
       </c>
@@ -12011,7 +12373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="13" customHeight="1">
+    <row r="121" spans="1:22" ht="13" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>158</v>
       </c>
@@ -12034,7 +12396,7 @@
       <c r="R121"/>
       <c r="S121"/>
     </row>
-    <row r="122" spans="1:19" ht="13" customHeight="1">
+    <row r="122" spans="1:22" ht="13" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>196</v>
       </c>
@@ -12056,7 +12418,7 @@
       <c r="R122"/>
       <c r="S122"/>
     </row>
-    <row r="123" spans="1:19" ht="13" customHeight="1">
+    <row r="123" spans="1:22" ht="13" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>199</v>
       </c>
@@ -12091,7 +12453,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="124" spans="1:19" s="28" customFormat="1" ht="13" customHeight="1">
+    <row r="124" spans="1:22" s="28" customFormat="1" ht="13" customHeight="1">
       <c r="A124" s="28" t="s">
         <v>52</v>
       </c>
@@ -12109,8 +12471,11 @@
       </c>
       <c r="R124"/>
       <c r="S124"/>
-    </row>
-    <row r="125" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="T124" s="36"/>
+      <c r="U124" s="36"/>
+      <c r="V124" s="36"/>
+    </row>
+    <row r="125" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A125" s="36" t="s">
         <v>718</v>
       </c>
@@ -12145,7 +12510,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="126" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+    <row r="126" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A126" s="36" t="s">
         <v>722</v>
       </c>
@@ -12180,7 +12545,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="127" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+    <row r="127" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A127" s="36" t="s">
         <v>13</v>
       </c>
@@ -12197,7 +12562,7 @@
       <c r="R127"/>
       <c r="S127"/>
     </row>
-    <row r="128" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+    <row r="128" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A128" s="36" t="s">
         <v>52</v>
       </c>
@@ -13305,7 +13670,7 @@
       </c>
       <c r="S176"/>
     </row>
-    <row r="177" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="177" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A177" s="32" t="s">
         <v>158</v>
       </c>
@@ -13326,8 +13691,11 @@
       </c>
       <c r="R177"/>
       <c r="S177"/>
-    </row>
-    <row r="178" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T177" s="36"/>
+      <c r="U177" s="36"/>
+      <c r="V177" s="36"/>
+    </row>
+    <row r="178" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A178" s="32" t="s">
         <v>158</v>
       </c>
@@ -13348,8 +13716,11 @@
       </c>
       <c r="R178"/>
       <c r="S178"/>
-    </row>
-    <row r="179" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T178" s="36"/>
+      <c r="U178" s="36"/>
+      <c r="V178" s="36"/>
+    </row>
+    <row r="179" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A179" s="32" t="s">
         <v>158</v>
       </c>
@@ -13370,8 +13741,11 @@
       </c>
       <c r="R179"/>
       <c r="S179"/>
-    </row>
-    <row r="180" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T179" s="36"/>
+      <c r="U179" s="36"/>
+      <c r="V179" s="36"/>
+    </row>
+    <row r="180" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A180" s="32" t="s">
         <v>158</v>
       </c>
@@ -13392,8 +13766,11 @@
       </c>
       <c r="R180"/>
       <c r="S180"/>
-    </row>
-    <row r="181" spans="1:19" ht="13" customHeight="1">
+      <c r="T180" s="36"/>
+      <c r="U180" s="36"/>
+      <c r="V180" s="36"/>
+    </row>
+    <row r="181" spans="1:22" ht="13" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>226</v>
       </c>
@@ -13423,7 +13800,7 @@
       </c>
       <c r="S181"/>
     </row>
-    <row r="182" spans="1:19" ht="13" customHeight="1">
+    <row r="182" spans="1:22" ht="13" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>230</v>
       </c>
@@ -13453,7 +13830,7 @@
       </c>
       <c r="S182"/>
     </row>
-    <row r="183" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+    <row r="183" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A183" s="36" t="s">
         <v>52</v>
       </c>
@@ -13477,7 +13854,7 @@
       </c>
       <c r="S183"/>
     </row>
-    <row r="184" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="184" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A184" s="32" t="s">
         <v>13</v>
       </c>
@@ -13498,8 +13875,11 @@
       </c>
       <c r="R184"/>
       <c r="S184"/>
-    </row>
-    <row r="185" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T184" s="36"/>
+      <c r="U184" s="36"/>
+      <c r="V184" s="36"/>
+    </row>
+    <row r="185" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A185" s="32" t="s">
         <v>35</v>
       </c>
@@ -13525,8 +13905,11 @@
       <c r="S185" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="186" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T185" s="36"/>
+      <c r="U185" s="36"/>
+      <c r="V185" s="36"/>
+    </row>
+    <row r="186" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A186" s="32" t="s">
         <v>20</v>
       </c>
@@ -13536,8 +13919,11 @@
       <c r="Q186"/>
       <c r="R186"/>
       <c r="S186"/>
-    </row>
-    <row r="187" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T186" s="36"/>
+      <c r="U186" s="36"/>
+      <c r="V186" s="36"/>
+    </row>
+    <row r="187" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A187" s="32" t="s">
         <v>13</v>
       </c>
@@ -13558,8 +13944,11 @@
       </c>
       <c r="R187"/>
       <c r="S187"/>
-    </row>
-    <row r="188" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T187" s="36"/>
+      <c r="U187" s="36"/>
+      <c r="V187" s="36"/>
+    </row>
+    <row r="188" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A188" s="32" t="s">
         <v>35</v>
       </c>
@@ -13585,8 +13974,11 @@
       <c r="S188" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="189" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T188" s="36"/>
+      <c r="U188" s="36"/>
+      <c r="V188" s="36"/>
+    </row>
+    <row r="189" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A189" s="32" t="s">
         <v>20</v>
       </c>
@@ -13596,8 +13988,11 @@
       <c r="Q189"/>
       <c r="R189"/>
       <c r="S189"/>
-    </row>
-    <row r="190" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T189" s="36"/>
+      <c r="U189" s="36"/>
+      <c r="V189" s="36"/>
+    </row>
+    <row r="190" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A190" s="32" t="s">
         <v>13</v>
       </c>
@@ -13618,8 +14013,11 @@
       </c>
       <c r="R190"/>
       <c r="S190"/>
-    </row>
-    <row r="191" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T190" s="36"/>
+      <c r="U190" s="36"/>
+      <c r="V190" s="36"/>
+    </row>
+    <row r="191" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A191" s="32" t="s">
         <v>35</v>
       </c>
@@ -13645,8 +14043,11 @@
       <c r="S191" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="192" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T191" s="36"/>
+      <c r="U191" s="36"/>
+      <c r="V191" s="36"/>
+    </row>
+    <row r="192" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A192" s="32" t="s">
         <v>35</v>
       </c>
@@ -13672,8 +14073,11 @@
       <c r="S192" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="193" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T192" s="36"/>
+      <c r="U192" s="36"/>
+      <c r="V192" s="36"/>
+    </row>
+    <row r="193" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A193" s="32" t="s">
         <v>20</v>
       </c>
@@ -13683,8 +14087,11 @@
       <c r="Q193"/>
       <c r="R193"/>
       <c r="S193"/>
-    </row>
-    <row r="194" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T193" s="36"/>
+      <c r="U193" s="36"/>
+      <c r="V193" s="36"/>
+    </row>
+    <row r="194" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A194" s="32" t="s">
         <v>13</v>
       </c>
@@ -13705,8 +14112,11 @@
       </c>
       <c r="R194"/>
       <c r="S194"/>
-    </row>
-    <row r="195" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T194" s="36"/>
+      <c r="U194" s="36"/>
+      <c r="V194" s="36"/>
+    </row>
+    <row r="195" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A195" s="32" t="s">
         <v>35</v>
       </c>
@@ -13732,8 +14142,11 @@
       <c r="S195" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="196" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T195" s="36"/>
+      <c r="U195" s="36"/>
+      <c r="V195" s="36"/>
+    </row>
+    <row r="196" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A196" s="32" t="s">
         <v>35</v>
       </c>
@@ -13759,8 +14172,11 @@
       <c r="S196" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="197" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T196" s="36"/>
+      <c r="U196" s="36"/>
+      <c r="V196" s="36"/>
+    </row>
+    <row r="197" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A197" s="32" t="s">
         <v>20</v>
       </c>
@@ -13770,8 +14186,11 @@
       <c r="Q197"/>
       <c r="R197"/>
       <c r="S197"/>
-    </row>
-    <row r="198" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T197" s="36"/>
+      <c r="U197" s="36"/>
+      <c r="V197" s="36"/>
+    </row>
+    <row r="198" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A198" s="32" t="s">
         <v>13</v>
       </c>
@@ -13792,8 +14211,11 @@
       </c>
       <c r="R198"/>
       <c r="S198"/>
-    </row>
-    <row r="199" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T198" s="36"/>
+      <c r="U198" s="36"/>
+      <c r="V198" s="36"/>
+    </row>
+    <row r="199" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A199" s="32" t="s">
         <v>35</v>
       </c>
@@ -13819,8 +14241,11 @@
       <c r="S199" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="200" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T199" s="36"/>
+      <c r="U199" s="36"/>
+      <c r="V199" s="36"/>
+    </row>
+    <row r="200" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A200" s="32" t="s">
         <v>35</v>
       </c>
@@ -13846,8 +14271,11 @@
       <c r="S200" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="201" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T200" s="36"/>
+      <c r="U200" s="36"/>
+      <c r="V200" s="36"/>
+    </row>
+    <row r="201" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A201" s="32" t="s">
         <v>20</v>
       </c>
@@ -13857,8 +14285,11 @@
       <c r="Q201"/>
       <c r="R201"/>
       <c r="S201"/>
-    </row>
-    <row r="202" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T201" s="36"/>
+      <c r="U201" s="36"/>
+      <c r="V201" s="36"/>
+    </row>
+    <row r="202" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A202" s="32" t="s">
         <v>13</v>
       </c>
@@ -13879,8 +14310,11 @@
       </c>
       <c r="R202"/>
       <c r="S202"/>
-    </row>
-    <row r="203" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T202" s="36"/>
+      <c r="U202" s="36"/>
+      <c r="V202" s="36"/>
+    </row>
+    <row r="203" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A203" s="32" t="s">
         <v>35</v>
       </c>
@@ -13906,8 +14340,11 @@
       <c r="S203" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="204" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T203" s="36"/>
+      <c r="U203" s="36"/>
+      <c r="V203" s="36"/>
+    </row>
+    <row r="204" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A204" s="32" t="s">
         <v>35</v>
       </c>
@@ -13933,8 +14370,11 @@
       <c r="S204" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="205" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T204" s="36"/>
+      <c r="U204" s="36"/>
+      <c r="V204" s="36"/>
+    </row>
+    <row r="205" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A205" s="32" t="s">
         <v>20</v>
       </c>
@@ -13944,8 +14384,11 @@
       <c r="Q205"/>
       <c r="R205"/>
       <c r="S205"/>
-    </row>
-    <row r="206" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T205" s="36"/>
+      <c r="U205" s="36"/>
+      <c r="V205" s="36"/>
+    </row>
+    <row r="206" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A206" s="32" t="s">
         <v>13</v>
       </c>
@@ -13966,8 +14409,11 @@
       </c>
       <c r="R206"/>
       <c r="S206"/>
-    </row>
-    <row r="207" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T206" s="36"/>
+      <c r="U206" s="36"/>
+      <c r="V206" s="36"/>
+    </row>
+    <row r="207" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A207" s="32" t="s">
         <v>35</v>
       </c>
@@ -13993,8 +14439,11 @@
       <c r="S207" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="208" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T207" s="36"/>
+      <c r="U207" s="36"/>
+      <c r="V207" s="36"/>
+    </row>
+    <row r="208" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A208" s="32" t="s">
         <v>35</v>
       </c>
@@ -14020,8 +14469,11 @@
       <c r="S208" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="209" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T208" s="36"/>
+      <c r="U208" s="36"/>
+      <c r="V208" s="36"/>
+    </row>
+    <row r="209" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A209" s="32" t="s">
         <v>20</v>
       </c>
@@ -14031,8 +14483,11 @@
       <c r="Q209"/>
       <c r="R209"/>
       <c r="S209"/>
-    </row>
-    <row r="210" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T209" s="36"/>
+      <c r="U209" s="36"/>
+      <c r="V209" s="36"/>
+    </row>
+    <row r="210" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A210" s="32" t="s">
         <v>13</v>
       </c>
@@ -14053,8 +14508,11 @@
       </c>
       <c r="R210"/>
       <c r="S210"/>
-    </row>
-    <row r="211" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T210" s="36"/>
+      <c r="U210" s="36"/>
+      <c r="V210" s="36"/>
+    </row>
+    <row r="211" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A211" s="32" t="s">
         <v>35</v>
       </c>
@@ -14080,8 +14538,11 @@
       <c r="S211" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T211" s="36"/>
+      <c r="U211" s="36"/>
+      <c r="V211" s="36"/>
+    </row>
+    <row r="212" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A212" s="32" t="s">
         <v>35</v>
       </c>
@@ -14107,8 +14568,11 @@
       <c r="S212" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T212" s="36"/>
+      <c r="U212" s="36"/>
+      <c r="V212" s="36"/>
+    </row>
+    <row r="213" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A213" s="32" t="s">
         <v>20</v>
       </c>
@@ -14118,8 +14582,11 @@
       <c r="Q213"/>
       <c r="R213"/>
       <c r="S213"/>
-    </row>
-    <row r="214" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T213" s="36"/>
+      <c r="U213" s="36"/>
+      <c r="V213" s="36"/>
+    </row>
+    <row r="214" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A214" s="32" t="s">
         <v>13</v>
       </c>
@@ -14140,8 +14607,11 @@
       </c>
       <c r="R214"/>
       <c r="S214"/>
-    </row>
-    <row r="215" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T214" s="36"/>
+      <c r="U214" s="36"/>
+      <c r="V214" s="36"/>
+    </row>
+    <row r="215" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A215" s="32" t="s">
         <v>35</v>
       </c>
@@ -14167,8 +14637,11 @@
       <c r="S215" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T215" s="36"/>
+      <c r="U215" s="36"/>
+      <c r="V215" s="36"/>
+    </row>
+    <row r="216" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A216" s="32" t="s">
         <v>35</v>
       </c>
@@ -14194,8 +14667,11 @@
       <c r="S216" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T216" s="36"/>
+      <c r="U216" s="36"/>
+      <c r="V216" s="36"/>
+    </row>
+    <row r="217" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A217" s="32" t="s">
         <v>20</v>
       </c>
@@ -14205,8 +14681,11 @@
       <c r="Q217"/>
       <c r="R217"/>
       <c r="S217"/>
-    </row>
-    <row r="218" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T217" s="36"/>
+      <c r="U217" s="36"/>
+      <c r="V217" s="36"/>
+    </row>
+    <row r="218" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A218" s="32" t="s">
         <v>13</v>
       </c>
@@ -14227,8 +14706,11 @@
       </c>
       <c r="R218"/>
       <c r="S218"/>
-    </row>
-    <row r="219" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T218" s="36"/>
+      <c r="U218" s="36"/>
+      <c r="V218" s="36"/>
+    </row>
+    <row r="219" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A219" s="32" t="s">
         <v>35</v>
       </c>
@@ -14254,8 +14736,11 @@
       <c r="S219" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T219" s="36"/>
+      <c r="U219" s="36"/>
+      <c r="V219" s="36"/>
+    </row>
+    <row r="220" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A220" s="32" t="s">
         <v>35</v>
       </c>
@@ -14281,8 +14766,11 @@
       <c r="S220" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T220" s="36"/>
+      <c r="U220" s="36"/>
+      <c r="V220" s="36"/>
+    </row>
+    <row r="221" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A221" s="32" t="s">
         <v>20</v>
       </c>
@@ -14292,8 +14780,11 @@
       <c r="Q221"/>
       <c r="R221"/>
       <c r="S221"/>
-    </row>
-    <row r="222" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T221" s="36"/>
+      <c r="U221" s="36"/>
+      <c r="V221" s="36"/>
+    </row>
+    <row r="222" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A222" s="32" t="s">
         <v>13</v>
       </c>
@@ -14314,8 +14805,11 @@
       </c>
       <c r="R222"/>
       <c r="S222"/>
-    </row>
-    <row r="223" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T222" s="36"/>
+      <c r="U222" s="36"/>
+      <c r="V222" s="36"/>
+    </row>
+    <row r="223" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A223" s="32" t="s">
         <v>35</v>
       </c>
@@ -14341,8 +14835,11 @@
       <c r="S223" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T223" s="36"/>
+      <c r="U223" s="36"/>
+      <c r="V223" s="36"/>
+    </row>
+    <row r="224" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A224" s="32" t="s">
         <v>35</v>
       </c>
@@ -14368,8 +14865,11 @@
       <c r="S224" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T224" s="36"/>
+      <c r="U224" s="36"/>
+      <c r="V224" s="36"/>
+    </row>
+    <row r="225" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A225" s="32" t="s">
         <v>20</v>
       </c>
@@ -14379,8 +14879,11 @@
       <c r="Q225"/>
       <c r="R225"/>
       <c r="S225"/>
-    </row>
-    <row r="226" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="T225" s="36"/>
+      <c r="U225" s="36"/>
+      <c r="V225" s="36"/>
+    </row>
+    <row r="226" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A226" s="36" t="s">
         <v>13</v>
       </c>
@@ -14397,7 +14900,7 @@
       <c r="R226"/>
       <c r="S226"/>
     </row>
-    <row r="227" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+    <row r="227" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A227" s="36" t="s">
         <v>52</v>
       </c>
@@ -14418,7 +14921,7 @@
       </c>
       <c r="S227"/>
     </row>
-    <row r="228" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="228" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A228" s="32" t="s">
         <v>35</v>
       </c>
@@ -14447,8 +14950,11 @@
       <c r="S228" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="229" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T228" s="36"/>
+      <c r="U228" s="36"/>
+      <c r="V228" s="36"/>
+    </row>
+    <row r="229" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A229" s="32" t="s">
         <v>35</v>
       </c>
@@ -14477,8 +14983,11 @@
       <c r="S229" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="230" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T229" s="36"/>
+      <c r="U229" s="36"/>
+      <c r="V229" s="36"/>
+    </row>
+    <row r="230" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A230" s="32" t="s">
         <v>35</v>
       </c>
@@ -14508,8 +15017,11 @@
       <c r="S230" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="231" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T230" s="36"/>
+      <c r="U230" s="36"/>
+      <c r="V230" s="36"/>
+    </row>
+    <row r="231" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A231" s="32" t="s">
         <v>35</v>
       </c>
@@ -14539,8 +15051,11 @@
       <c r="S231" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="232" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T231" s="36"/>
+      <c r="U231" s="36"/>
+      <c r="V231" s="36"/>
+    </row>
+    <row r="232" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A232" s="32" t="s">
         <v>35</v>
       </c>
@@ -14570,8 +15085,11 @@
       <c r="S232" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="233" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T232" s="36"/>
+      <c r="U232" s="36"/>
+      <c r="V232" s="36"/>
+    </row>
+    <row r="233" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A233" s="32" t="s">
         <v>35</v>
       </c>
@@ -14601,8 +15119,11 @@
       <c r="S233" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="234" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T233" s="36"/>
+      <c r="U233" s="36"/>
+      <c r="V233" s="36"/>
+    </row>
+    <row r="234" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A234" s="32" t="s">
         <v>35</v>
       </c>
@@ -14632,8 +15153,11 @@
       <c r="S234" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="235" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T234" s="36"/>
+      <c r="U234" s="36"/>
+      <c r="V234" s="36"/>
+    </row>
+    <row r="235" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A235" s="32" t="s">
         <v>35</v>
       </c>
@@ -14663,8 +15187,11 @@
       <c r="S235" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="236" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T235" s="36"/>
+      <c r="U235" s="36"/>
+      <c r="V235" s="36"/>
+    </row>
+    <row r="236" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A236" s="32" t="s">
         <v>35</v>
       </c>
@@ -14694,8 +15221,11 @@
       <c r="S236" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="237" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T236" s="36"/>
+      <c r="U236" s="36"/>
+      <c r="V236" s="36"/>
+    </row>
+    <row r="237" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A237" s="32" t="s">
         <v>35</v>
       </c>
@@ -14725,8 +15255,11 @@
       <c r="S237" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="238" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T237" s="36"/>
+      <c r="U237" s="36"/>
+      <c r="V237" s="36"/>
+    </row>
+    <row r="238" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A238" s="32" t="s">
         <v>35</v>
       </c>
@@ -14756,8 +15289,11 @@
       <c r="S238" s="83" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="239" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="T238" s="36"/>
+      <c r="U238" s="36"/>
+      <c r="V238" s="36"/>
+    </row>
+    <row r="239" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A239" s="36" t="s">
         <v>20</v>
       </c>
@@ -14768,7 +15304,7 @@
       <c r="R239"/>
       <c r="S239"/>
     </row>
-    <row r="240" spans="1:19" ht="13" customHeight="1">
+    <row r="240" spans="1:22" ht="13" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>158</v>
       </c>
@@ -14790,7 +15326,7 @@
       <c r="R240"/>
       <c r="S240"/>
     </row>
-    <row r="241" spans="1:19" ht="13" customHeight="1">
+    <row r="241" spans="1:22" ht="13" customHeight="1">
       <c r="A241" s="1" t="s">
         <v>945</v>
       </c>
@@ -14825,7 +15361,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="242" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="242" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A242" s="32" t="s">
         <v>158</v>
       </c>
@@ -14846,8 +15382,11 @@
       </c>
       <c r="R242"/>
       <c r="S242"/>
-    </row>
-    <row r="243" spans="1:19" ht="13" customHeight="1">
+      <c r="T242" s="36"/>
+      <c r="U242" s="36"/>
+      <c r="V242" s="36"/>
+    </row>
+    <row r="243" spans="1:22" ht="13" customHeight="1">
       <c r="A243" s="1" t="s">
         <v>13</v>
       </c>
@@ -14864,7 +15403,7 @@
       <c r="R243"/>
       <c r="S243"/>
     </row>
-    <row r="244" spans="1:19" ht="13" customHeight="1">
+    <row r="244" spans="1:22" ht="13" customHeight="1">
       <c r="A244" s="1" t="s">
         <v>52</v>
       </c>
@@ -14880,7 +15419,7 @@
       <c r="R244"/>
       <c r="S244"/>
     </row>
-    <row r="245" spans="1:19" ht="13" customHeight="1">
+    <row r="245" spans="1:22" ht="13" customHeight="1">
       <c r="A245" s="1" t="s">
         <v>258</v>
       </c>
@@ -14894,7 +15433,7 @@
       <c r="R245"/>
       <c r="S245"/>
     </row>
-    <row r="246" spans="1:19" ht="13" customHeight="1">
+    <row r="246" spans="1:22" ht="13" customHeight="1">
       <c r="A246" s="1" t="s">
         <v>258</v>
       </c>
@@ -14916,7 +15455,7 @@
       <c r="R246"/>
       <c r="S246"/>
     </row>
-    <row r="247" spans="1:19" ht="13" customHeight="1">
+    <row r="247" spans="1:22" ht="13" customHeight="1">
       <c r="A247" s="1" t="s">
         <v>258</v>
       </c>
@@ -14938,7 +15477,7 @@
       <c r="R247"/>
       <c r="S247"/>
     </row>
-    <row r="248" spans="1:19" ht="13" customHeight="1">
+    <row r="248" spans="1:22" ht="13" customHeight="1">
       <c r="A248" s="1" t="s">
         <v>258</v>
       </c>
@@ -14960,7 +15499,7 @@
       <c r="R248"/>
       <c r="S248"/>
     </row>
-    <row r="249" spans="1:19" ht="13" customHeight="1">
+    <row r="249" spans="1:22" ht="13" customHeight="1">
       <c r="A249" s="1" t="s">
         <v>258</v>
       </c>
@@ -14982,7 +15521,7 @@
       <c r="R249"/>
       <c r="S249"/>
     </row>
-    <row r="250" spans="1:19" ht="13" customHeight="1">
+    <row r="250" spans="1:22" ht="13" customHeight="1">
       <c r="A250" s="1" t="s">
         <v>258</v>
       </c>
@@ -15004,7 +15543,7 @@
       <c r="R250"/>
       <c r="S250"/>
     </row>
-    <row r="251" spans="1:19" ht="13" customHeight="1">
+    <row r="251" spans="1:22" ht="13" customHeight="1">
       <c r="A251" s="1" t="s">
         <v>258</v>
       </c>
@@ -15026,7 +15565,7 @@
       <c r="R251"/>
       <c r="S251"/>
     </row>
-    <row r="252" spans="1:19" ht="13" customHeight="1">
+    <row r="252" spans="1:22" ht="13" customHeight="1">
       <c r="A252" s="1" t="s">
         <v>258</v>
       </c>
@@ -15048,7 +15587,7 @@
       <c r="R252"/>
       <c r="S252"/>
     </row>
-    <row r="253" spans="1:19" ht="13" customHeight="1">
+    <row r="253" spans="1:22" ht="13" customHeight="1">
       <c r="A253" s="1" t="s">
         <v>258</v>
       </c>
@@ -15070,7 +15609,7 @@
       <c r="R253"/>
       <c r="S253"/>
     </row>
-    <row r="254" spans="1:19" ht="13" customHeight="1">
+    <row r="254" spans="1:22" ht="13" customHeight="1">
       <c r="A254" s="1" t="s">
         <v>258</v>
       </c>
@@ -15092,7 +15631,7 @@
       <c r="R254"/>
       <c r="S254"/>
     </row>
-    <row r="255" spans="1:19" ht="13" customHeight="1">
+    <row r="255" spans="1:22" ht="13" customHeight="1">
       <c r="A255" s="1" t="s">
         <v>258</v>
       </c>
@@ -15114,7 +15653,7 @@
       <c r="R255"/>
       <c r="S255"/>
     </row>
-    <row r="256" spans="1:19" ht="13" customHeight="1">
+    <row r="256" spans="1:22" ht="13" customHeight="1">
       <c r="A256" s="1" t="s">
         <v>258</v>
       </c>
@@ -15439,7 +15978,7 @@
       <c r="R272"/>
       <c r="S272"/>
     </row>
-    <row r="273" spans="1:21" ht="13" customHeight="1">
+    <row r="273" spans="1:22" ht="13" customHeight="1">
       <c r="A273" s="1" t="s">
         <v>52</v>
       </c>
@@ -15458,7 +15997,7 @@
       <c r="R273"/>
       <c r="S273"/>
     </row>
-    <row r="274" spans="1:21" ht="13" customHeight="1">
+    <row r="274" spans="1:22" ht="13" customHeight="1">
       <c r="A274" s="1" t="s">
         <v>282</v>
       </c>
@@ -15480,7 +16019,7 @@
       <c r="R274"/>
       <c r="S274"/>
     </row>
-    <row r="275" spans="1:21" ht="13" customHeight="1">
+    <row r="275" spans="1:22" ht="13" customHeight="1">
       <c r="A275" s="1" t="s">
         <v>35</v>
       </c>
@@ -15510,7 +16049,7 @@
       </c>
       <c r="S275"/>
     </row>
-    <row r="276" spans="1:21" ht="13" customHeight="1">
+    <row r="276" spans="1:22" ht="13" customHeight="1">
       <c r="A276" s="1" t="s">
         <v>289</v>
       </c>
@@ -15532,7 +16071,7 @@
       <c r="R276"/>
       <c r="S276"/>
     </row>
-    <row r="277" spans="1:21" ht="13" customHeight="1">
+    <row r="277" spans="1:22" ht="13" customHeight="1">
       <c r="A277" s="1" t="s">
         <v>282</v>
       </c>
@@ -15554,7 +16093,7 @@
       <c r="R277"/>
       <c r="S277"/>
     </row>
-    <row r="278" spans="1:21" ht="13" customHeight="1">
+    <row r="278" spans="1:22" ht="13" customHeight="1">
       <c r="A278" s="1" t="s">
         <v>35</v>
       </c>
@@ -15584,7 +16123,7 @@
       </c>
       <c r="S278"/>
     </row>
-    <row r="279" spans="1:21" ht="13" customHeight="1">
+    <row r="279" spans="1:22" ht="13" customHeight="1">
       <c r="A279" s="1" t="s">
         <v>289</v>
       </c>
@@ -15606,7 +16145,7 @@
       <c r="R279"/>
       <c r="S279"/>
     </row>
-    <row r="280" spans="1:21" s="62" customFormat="1" ht="13" customHeight="1">
+    <row r="280" spans="1:22" s="62" customFormat="1" ht="13" customHeight="1">
       <c r="A280" s="62" t="s">
         <v>282</v>
       </c>
@@ -15633,8 +16172,9 @@
       <c r="S280"/>
       <c r="T280" s="66"/>
       <c r="U280" s="66"/>
-    </row>
-    <row r="281" spans="1:21" s="62" customFormat="1" ht="13" customHeight="1">
+      <c r="V280" s="66"/>
+    </row>
+    <row r="281" spans="1:22" s="62" customFormat="1" ht="13" customHeight="1">
       <c r="A281" s="62" t="s">
         <v>35</v>
       </c>
@@ -15669,8 +16209,9 @@
       <c r="S281"/>
       <c r="T281" s="66"/>
       <c r="U281" s="66"/>
-    </row>
-    <row r="282" spans="1:21" s="62" customFormat="1" ht="13" customHeight="1">
+      <c r="V281" s="66"/>
+    </row>
+    <row r="282" spans="1:22" s="62" customFormat="1" ht="13" customHeight="1">
       <c r="A282" s="62" t="s">
         <v>289</v>
       </c>
@@ -15697,8 +16238,9 @@
       <c r="S282"/>
       <c r="T282" s="66"/>
       <c r="U282" s="66"/>
-    </row>
-    <row r="283" spans="1:21" s="62" customFormat="1" ht="13" customHeight="1">
+      <c r="V282" s="66"/>
+    </row>
+    <row r="283" spans="1:22" s="62" customFormat="1" ht="13" customHeight="1">
       <c r="A283" s="62" t="s">
         <v>282</v>
       </c>
@@ -15725,8 +16267,9 @@
       <c r="S283"/>
       <c r="T283" s="66"/>
       <c r="U283" s="66"/>
-    </row>
-    <row r="284" spans="1:21" s="62" customFormat="1" ht="13" customHeight="1">
+      <c r="V283" s="66"/>
+    </row>
+    <row r="284" spans="1:22" s="62" customFormat="1" ht="13" customHeight="1">
       <c r="A284" s="62" t="s">
         <v>35</v>
       </c>
@@ -15761,8 +16304,9 @@
       <c r="S284"/>
       <c r="T284" s="66"/>
       <c r="U284" s="66"/>
-    </row>
-    <row r="285" spans="1:21" s="62" customFormat="1" ht="13" customHeight="1">
+      <c r="V284" s="66"/>
+    </row>
+    <row r="285" spans="1:22" s="62" customFormat="1" ht="13" customHeight="1">
       <c r="A285" s="62" t="s">
         <v>289</v>
       </c>
@@ -15789,8 +16333,9 @@
       <c r="S285"/>
       <c r="T285" s="66"/>
       <c r="U285" s="66"/>
-    </row>
-    <row r="286" spans="1:21" ht="13" customHeight="1">
+      <c r="V285" s="66"/>
+    </row>
+    <row r="286" spans="1:22" ht="13" customHeight="1">
       <c r="A286" s="1" t="s">
         <v>282</v>
       </c>
@@ -15812,7 +16357,7 @@
       <c r="R286"/>
       <c r="S286"/>
     </row>
-    <row r="287" spans="1:21" ht="13" customHeight="1">
+    <row r="287" spans="1:22" ht="13" customHeight="1">
       <c r="A287" s="1" t="s">
         <v>35</v>
       </c>
@@ -15842,7 +16387,7 @@
       </c>
       <c r="S287"/>
     </row>
-    <row r="288" spans="1:21" ht="13" customHeight="1">
+    <row r="288" spans="1:22" ht="13" customHeight="1">
       <c r="A288" s="1" t="s">
         <v>289</v>
       </c>
@@ -16234,7 +16779,7 @@
       <c r="R304"/>
       <c r="S304"/>
     </row>
-    <row r="305" spans="1:19" ht="13" customHeight="1">
+    <row r="305" spans="1:22" ht="13" customHeight="1">
       <c r="A305" s="1" t="s">
         <v>16</v>
       </c>
@@ -16256,7 +16801,7 @@
       <c r="R305"/>
       <c r="S305"/>
     </row>
-    <row r="306" spans="1:19" ht="13" customHeight="1">
+    <row r="306" spans="1:22" ht="13" customHeight="1">
       <c r="A306" s="1" t="s">
         <v>16</v>
       </c>
@@ -16278,7 +16823,7 @@
       <c r="R306"/>
       <c r="S306"/>
     </row>
-    <row r="307" spans="1:19" ht="13" customHeight="1">
+    <row r="307" spans="1:22" ht="13" customHeight="1">
       <c r="A307" s="1" t="s">
         <v>16</v>
       </c>
@@ -16300,7 +16845,7 @@
       <c r="R307"/>
       <c r="S307"/>
     </row>
-    <row r="308" spans="1:19" ht="13" customHeight="1">
+    <row r="308" spans="1:22" ht="13" customHeight="1">
       <c r="A308" s="1" t="s">
         <v>16</v>
       </c>
@@ -16322,7 +16867,7 @@
       <c r="R308"/>
       <c r="S308"/>
     </row>
-    <row r="309" spans="1:19" ht="13" customHeight="1">
+    <row r="309" spans="1:22" ht="13" customHeight="1">
       <c r="A309" s="1" t="s">
         <v>20</v>
       </c>
@@ -16333,7 +16878,7 @@
       <c r="R309"/>
       <c r="S309"/>
     </row>
-    <row r="310" spans="1:19" s="28" customFormat="1" ht="13" customHeight="1">
+    <row r="310" spans="1:22" s="28" customFormat="1" ht="13" customHeight="1">
       <c r="A310" s="28" t="s">
         <v>52</v>
       </c>
@@ -16351,8 +16896,11 @@
       </c>
       <c r="R310"/>
       <c r="S310"/>
-    </row>
-    <row r="311" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T310" s="36"/>
+      <c r="U310" s="36"/>
+      <c r="V310" s="36"/>
+    </row>
+    <row r="311" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A311" s="32" t="s">
         <v>239</v>
       </c>
@@ -16386,8 +16934,11 @@
       <c r="S311" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="312" spans="1:19" s="36" customFormat="1" ht="13" customHeight="1">
+      <c r="T311" s="36"/>
+      <c r="U311" s="36"/>
+      <c r="V311" s="36"/>
+    </row>
+    <row r="312" spans="1:22" s="36" customFormat="1" ht="13" customHeight="1">
       <c r="A312" s="36" t="s">
         <v>245</v>
       </c>
@@ -16422,7 +16973,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="313" spans="1:19" ht="13" customHeight="1">
+    <row r="313" spans="1:22" ht="13" customHeight="1">
       <c r="A313" s="1" t="s">
         <v>158</v>
       </c>
@@ -16444,7 +16995,7 @@
       <c r="R313"/>
       <c r="S313"/>
     </row>
-    <row r="314" spans="1:19" ht="13" customHeight="1">
+    <row r="314" spans="1:22" ht="13" customHeight="1">
       <c r="A314" s="1" t="s">
         <v>247</v>
       </c>
@@ -16479,7 +17030,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="315" spans="1:19" ht="13" customHeight="1">
+    <row r="315" spans="1:22" ht="13" customHeight="1">
       <c r="A315" s="1" t="s">
         <v>158</v>
       </c>
@@ -16501,7 +17052,7 @@
       <c r="R315"/>
       <c r="S315"/>
     </row>
-    <row r="316" spans="1:19" ht="13" customHeight="1">
+    <row r="316" spans="1:22" ht="13" customHeight="1">
       <c r="A316" s="1" t="s">
         <v>158</v>
       </c>
@@ -16523,7 +17074,7 @@
       <c r="R316"/>
       <c r="S316"/>
     </row>
-    <row r="317" spans="1:19" ht="13" customHeight="1">
+    <row r="317" spans="1:22" ht="13" customHeight="1">
       <c r="A317" s="1" t="s">
         <v>158</v>
       </c>
@@ -16545,7 +17096,7 @@
       <c r="R317"/>
       <c r="S317"/>
     </row>
-    <row r="318" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+    <row r="318" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A318" s="32" t="s">
         <v>289</v>
       </c>
@@ -16571,8 +17122,11 @@
         <v>1905</v>
       </c>
       <c r="S318"/>
-    </row>
-    <row r="319" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T318" s="36"/>
+      <c r="U318" s="36"/>
+      <c r="V318" s="36"/>
+    </row>
+    <row r="319" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A319" s="32" t="s">
         <v>289</v>
       </c>
@@ -16593,8 +17147,11 @@
       </c>
       <c r="R319"/>
       <c r="S319"/>
-    </row>
-    <row r="320" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T319" s="36"/>
+      <c r="U319" s="36"/>
+      <c r="V319" s="36"/>
+    </row>
+    <row r="320" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A320" s="32" t="s">
         <v>289</v>
       </c>
@@ -16615,8 +17172,11 @@
       </c>
       <c r="R320"/>
       <c r="S320"/>
-    </row>
-    <row r="321" spans="1:19" s="32" customFormat="1" ht="13" customHeight="1">
+      <c r="T320" s="36"/>
+      <c r="U320" s="36"/>
+      <c r="V320" s="36"/>
+    </row>
+    <row r="321" spans="1:22" s="32" customFormat="1" ht="13" customHeight="1">
       <c r="A321" s="32" t="s">
         <v>1080</v>
       </c>
@@ -16637,8 +17197,11 @@
       </c>
       <c r="R321"/>
       <c r="S321"/>
-    </row>
-    <row r="322" spans="1:19" ht="13" customHeight="1">
+      <c r="T321" s="36"/>
+      <c r="U321" s="36"/>
+      <c r="V321" s="36"/>
+    </row>
+    <row r="322" spans="1:22" ht="13" customHeight="1">
       <c r="A322" s="1" t="s">
         <v>16</v>
       </c>
@@ -16657,7 +17220,7 @@
       <c r="R322"/>
       <c r="S322"/>
     </row>
-    <row r="323" spans="1:19" ht="13" customHeight="1">
+    <row r="323" spans="1:22" ht="13" customHeight="1">
       <c r="A323" s="1" t="s">
         <v>52</v>
       </c>
@@ -16681,7 +17244,7 @@
       </c>
       <c r="S323"/>
     </row>
-    <row r="324" spans="1:19" ht="13" customHeight="1">
+    <row r="324" spans="1:22" ht="13" customHeight="1">
       <c r="A324" s="1" t="s">
         <v>52</v>
       </c>
@@ -16697,7 +17260,7 @@
       <c r="R324"/>
       <c r="S324"/>
     </row>
-    <row r="325" spans="1:19" ht="13" customHeight="1">
+    <row r="325" spans="1:22" ht="13" customHeight="1">
       <c r="A325" s="1" t="s">
         <v>341</v>
       </c>
@@ -16718,7 +17281,7 @@
       </c>
       <c r="S325"/>
     </row>
-    <row r="326" spans="1:19" ht="13" customHeight="1">
+    <row r="326" spans="1:22" ht="13" customHeight="1">
       <c r="A326" s="1" t="s">
         <v>62</v>
       </c>
@@ -16740,7 +17303,7 @@
       <c r="R326"/>
       <c r="S326"/>
     </row>
-    <row r="327" spans="1:19" ht="13" customHeight="1">
+    <row r="327" spans="1:22" ht="13" customHeight="1">
       <c r="A327" s="1" t="s">
         <v>345</v>
       </c>
@@ -16759,7 +17322,7 @@
       <c r="R327"/>
       <c r="S327"/>
     </row>
-    <row r="328" spans="1:19" ht="13" customHeight="1">
+    <row r="328" spans="1:22" ht="13" customHeight="1">
       <c r="A328" s="1" t="s">
         <v>1107</v>
       </c>
@@ -16778,7 +17341,7 @@
       <c r="R328"/>
       <c r="S328"/>
     </row>
-    <row r="329" spans="1:19" ht="13" customHeight="1">
+    <row r="329" spans="1:22" ht="13" customHeight="1">
       <c r="A329" s="1" t="s">
         <v>347</v>
       </c>
@@ -16805,7 +17368,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="330" spans="1:19" ht="13" customHeight="1">
+    <row r="330" spans="1:22" ht="13" customHeight="1">
       <c r="A330" s="1" t="s">
         <v>350</v>
       </c>
@@ -16813,7 +17376,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="331" spans="1:19" ht="13" customHeight="1">
+    <row r="331" spans="1:22" ht="13" customHeight="1">
       <c r="A331" s="1" t="s">
         <v>352</v>
       </c>
@@ -16821,7 +17384,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="332" spans="1:19" ht="13" customHeight="1">
+    <row r="332" spans="1:22" ht="13" customHeight="1">
       <c r="A332" s="1" t="s">
         <v>353</v>
       </c>
@@ -16829,7 +17392,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="333" spans="1:19" ht="13" customHeight="1">
+    <row r="333" spans="1:22" ht="13" customHeight="1">
       <c r="A333" s="1" t="s">
         <v>354</v>
       </c>
@@ -16837,7 +17400,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="334" spans="1:19" ht="13" customHeight="1">
+    <row r="334" spans="1:22" ht="13" customHeight="1">
       <c r="A334" s="1" t="s">
         <v>355</v>
       </c>

--- a/test/SQ.xlsx
+++ b/test/SQ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1736">
   <si>
     <t>type</t>
   </si>
@@ -5502,9 +5502,6 @@
     <t>Une liste de zone de ZDs.</t>
   </si>
   <si>
-    <t>level4_list</t>
-  </si>
-  <si>
     <t>Level 1 Geography</t>
   </si>
   <si>
@@ -5517,9 +5514,6 @@
     <t>Level 3 Geography</t>
   </si>
   <si>
-    <t>Level 4 Geography</t>
-  </si>
-  <si>
     <t>facility_name_list_example5</t>
   </si>
   <si>
@@ -5535,21 +5529,6 @@
     <t>facility_name_list_example1</t>
   </si>
   <si>
-    <t>level4_list_example5</t>
-  </si>
-  <si>
-    <t>level4_list_example4</t>
-  </si>
-  <si>
-    <t>level4_list_example3</t>
-  </si>
-  <si>
-    <t>level4_list_example2</t>
-  </si>
-  <si>
-    <t>level4_list_example1</t>
-  </si>
-  <si>
     <t>level3_list_example5</t>
   </si>
   <si>
@@ -5602,6 +5581,24 @@
   </si>
   <si>
     <t>Une liste de SPS.</t>
+  </si>
+  <si>
+    <t>EA_list</t>
+  </si>
+  <si>
+    <t>EA_list_example1</t>
+  </si>
+  <si>
+    <t>EA_list_example2</t>
+  </si>
+  <si>
+    <t>EA_list_example3</t>
+  </si>
+  <si>
+    <t>EA_list_example4</t>
+  </si>
+  <si>
+    <t>EA_list_example5</t>
   </si>
 </sst>
 </file>
@@ -7693,11 +7690,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IT334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U32" sqref="U32"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0"/>
@@ -8785,10 +8782,10 @@
       </c>
       <c r="S32"/>
       <c r="V32" s="39" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="W32" s="39" t="s">
-        <v>1736</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="33" spans="1:46" ht="13" customHeight="1">
@@ -19329,7 +19326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -19365,13 +19362,13 @@
         <v>1297</v>
       </c>
       <c r="B2" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="C2" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="D2" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E2" t="str">
         <f>$D2</f>
@@ -19383,13 +19380,13 @@
         <v>1297</v>
       </c>
       <c r="B3" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="C3" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="D3" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E26" si="0">$D3</f>
@@ -19401,13 +19398,13 @@
         <v>1297</v>
       </c>
       <c r="B4" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="C4" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="D4" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
@@ -19419,13 +19416,13 @@
         <v>1297</v>
       </c>
       <c r="B5" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="C5" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="D5" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
@@ -19437,13 +19434,13 @@
         <v>1297</v>
       </c>
       <c r="B6" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="C6" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="D6" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -19455,13 +19452,13 @@
         <v>1298</v>
       </c>
       <c r="B7" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="C7" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="D7" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
@@ -19473,13 +19470,13 @@
         <v>1298</v>
       </c>
       <c r="B8" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="C8" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="D8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -19491,13 +19488,13 @@
         <v>1298</v>
       </c>
       <c r="B9" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="C9" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="D9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -19509,13 +19506,13 @@
         <v>1298</v>
       </c>
       <c r="B10" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="C10" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="D10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -19527,13 +19524,13 @@
         <v>1298</v>
       </c>
       <c r="B11" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="C11" t="s">
-        <v>1729</v>
+        <v>1722</v>
       </c>
       <c r="D11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -19545,13 +19542,13 @@
         <v>1299</v>
       </c>
       <c r="B12" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="C12" t="s">
-        <v>1728</v>
+        <v>1721</v>
       </c>
       <c r="D12" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -19563,13 +19560,13 @@
         <v>1299</v>
       </c>
       <c r="B13" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="C13" t="s">
-        <v>1727</v>
+        <v>1720</v>
       </c>
       <c r="D13" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -19581,13 +19578,13 @@
         <v>1299</v>
       </c>
       <c r="B14" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="C14" t="s">
-        <v>1726</v>
+        <v>1719</v>
       </c>
       <c r="D14" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -19599,13 +19596,13 @@
         <v>1299</v>
       </c>
       <c r="B15" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="C15" t="s">
-        <v>1725</v>
+        <v>1718</v>
       </c>
       <c r="D15" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -19617,13 +19614,13 @@
         <v>1299</v>
       </c>
       <c r="B16" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="C16" t="s">
-        <v>1724</v>
+        <v>1717</v>
       </c>
       <c r="D16" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -19632,92 +19629,92 @@
     </row>
     <row r="17" spans="1:5" customFormat="1" ht="14">
       <c r="A17" t="s">
-        <v>1703</v>
+        <v>1730</v>
       </c>
       <c r="B17" t="s">
-        <v>1718</v>
+        <v>1731</v>
       </c>
       <c r="C17" t="s">
-        <v>1723</v>
+        <v>1716</v>
       </c>
       <c r="D17" t="s">
-        <v>1708</v>
+        <v>34</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="18" spans="1:5" customFormat="1" ht="14">
       <c r="A18" t="s">
-        <v>1703</v>
+        <v>1730</v>
       </c>
       <c r="B18" t="s">
-        <v>1717</v>
+        <v>1732</v>
       </c>
       <c r="C18" t="s">
-        <v>1722</v>
+        <v>1715</v>
       </c>
       <c r="D18" t="s">
-        <v>1708</v>
+        <v>34</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="19" spans="1:5" customFormat="1" ht="14">
       <c r="A19" t="s">
-        <v>1703</v>
+        <v>1730</v>
       </c>
       <c r="B19" t="s">
-        <v>1716</v>
+        <v>1733</v>
       </c>
       <c r="C19" t="s">
-        <v>1721</v>
+        <v>1714</v>
       </c>
       <c r="D19" t="s">
-        <v>1708</v>
+        <v>34</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="20" spans="1:5" customFormat="1" ht="14">
       <c r="A20" t="s">
-        <v>1703</v>
+        <v>1730</v>
       </c>
       <c r="B20" t="s">
-        <v>1715</v>
+        <v>1734</v>
       </c>
       <c r="C20" t="s">
-        <v>1720</v>
+        <v>1713</v>
       </c>
       <c r="D20" t="s">
-        <v>1708</v>
+        <v>34</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="21" spans="1:5" customFormat="1" ht="14">
       <c r="A21" t="s">
-        <v>1703</v>
+        <v>1730</v>
       </c>
       <c r="B21" t="s">
-        <v>1714</v>
+        <v>1735</v>
       </c>
       <c r="C21" t="s">
-        <v>1719</v>
+        <v>1712</v>
       </c>
       <c r="D21" t="s">
-        <v>1708</v>
+        <v>34</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>Level 4 Geography</v>
+        <v>EA</v>
       </c>
     </row>
     <row r="22" spans="1:5" customFormat="1" ht="14">
@@ -19725,13 +19722,13 @@
         <v>1300</v>
       </c>
       <c r="B22" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="C22" t="s">
-        <v>1718</v>
+        <v>1731</v>
       </c>
       <c r="D22" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -19743,13 +19740,13 @@
         <v>1300</v>
       </c>
       <c r="B23" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C23" t="s">
-        <v>1717</v>
+        <v>1732</v>
       </c>
       <c r="D23" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -19761,13 +19758,13 @@
         <v>1300</v>
       </c>
       <c r="B24" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="C24" t="s">
-        <v>1716</v>
+        <v>1733</v>
       </c>
       <c r="D24" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
@@ -19779,13 +19776,13 @@
         <v>1300</v>
       </c>
       <c r="B25" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C25" t="s">
-        <v>1715</v>
+        <v>1734</v>
       </c>
       <c r="D25" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
@@ -19797,13 +19794,13 @@
         <v>1300</v>
       </c>
       <c r="B26" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="C26" t="s">
-        <v>1714</v>
+        <v>1735</v>
       </c>
       <c r="D26" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
